--- a/qa/tmp/【SQA质量月报】嵌入式软件部202010.xlsx
+++ b/qa/tmp/【SQA质量月报】嵌入式软件部202010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="935" activeTab="12"/>
+    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="请先读我" sheetId="56" r:id="rId1"/>
@@ -384,10 +384,12 @@
     <t>总遗留bug数</t>
   </si>
   <si>
-    <t>178(33/145)</t>
-  </si>
-  <si>
-    <t>161(46/115)</t>
+    <t>178
+(33/145)</t>
+  </si>
+  <si>
+    <t>161
+(46/115)</t>
   </si>
   <si>
     <t>设计类缺陷总数</t>
@@ -4239,11 +4241,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="76">
@@ -4629,22 +4631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4653,19 +4639,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4690,8 +4668,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4704,9 +4736,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4721,21 +4752,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4743,31 +4759,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4952,7 +4954,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4964,7 +4990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4976,7 +5002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4988,25 +5038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5018,13 +5050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5036,7 +5068,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5048,55 +5098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5604,6 +5606,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5615,6 +5626,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5666,15 +5686,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF4472C4"/>
       </top>
@@ -5683,15 +5694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5700,10 +5702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="31" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="35" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5712,148 +5714,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="39" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="39" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="34" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="31" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5864,10 +5866,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6609,7 +6611,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6623,6 +6625,9 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="25" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6652,6 +6657,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="6" borderId="37" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7298,206 +7306,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.15" customHeight="1" spans="1:4">
-      <c r="A1" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
+      <c r="A1" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="302" t="s">
+      <c r="B2" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="302" t="s">
+      <c r="C2" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="305" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="304">
+      <c r="A3" s="306">
         <v>1</v>
       </c>
-      <c r="B3" s="305" t="s">
+      <c r="B3" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="306"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="308"/>
     </row>
     <row r="4" ht="49.5" outlineLevel="1" spans="1:4">
-      <c r="A4" s="307"/>
-      <c r="B4" s="308" t="s">
+      <c r="A4" s="309"/>
+      <c r="B4" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="309" t="s">
+      <c r="C4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="306" t="s">
+      <c r="D4" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="304">
+      <c r="A5" s="306">
         <v>2</v>
       </c>
-      <c r="B5" s="305" t="s">
+      <c r="B5" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="305"/>
-      <c r="D5" s="306"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="308"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310" t="s">
+      <c r="A6" s="309"/>
+      <c r="B6" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="311" t="s">
+      <c r="C6" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="306" t="s">
+      <c r="D6" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="304">
+      <c r="A7" s="306">
         <v>3</v>
       </c>
-      <c r="B7" s="305" t="s">
+      <c r="B7" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="305"/>
-      <c r="D7" s="306"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="308"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:4">
-      <c r="B8" s="312" t="s">
+      <c r="B8" s="314" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="306" t="s">
+      <c r="D8" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" outlineLevel="1" spans="2:4">
-      <c r="B9" s="312" t="s">
+      <c r="B9" s="314" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="306" t="s">
+      <c r="D9" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" outlineLevel="1" spans="2:4">
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="314" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="306" t="s">
+      <c r="D10" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" spans="2:4">
-      <c r="B11" s="312" t="s">
+      <c r="B11" s="314" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="306" t="s">
+      <c r="D11" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" outlineLevel="1" spans="2:4">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="314" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="306" t="s">
+      <c r="D12" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="310" t="s">
+      <c r="B13" s="312" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="306" t="s">
+      <c r="D13" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="26.1" customHeight="1" outlineLevel="1" spans="2:4">
-      <c r="B14" s="310" t="s">
+      <c r="B14" s="312" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="306" t="s">
+      <c r="D14" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="312" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="306" t="s">
+      <c r="D15" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="310" t="s">
+      <c r="B16" s="312" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="306" t="s">
+      <c r="D16" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="310" t="s">
+      <c r="B17" s="312" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="306" t="s">
+      <c r="D17" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="304">
+      <c r="A18" s="306">
         <v>4</v>
       </c>
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="305"/>
-      <c r="D18" s="306"/>
+      <c r="C18" s="307"/>
+      <c r="D18" s="308"/>
     </row>
     <row r="19" ht="33" spans="2:3">
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="314" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="313" t="s">
+      <c r="C19" s="315" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9363,7 +9371,7 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
@@ -15499,7 +15507,7 @@
       <c r="D56" s="49" t="s">
         <v>1269</v>
       </c>
-      <c r="E56" s="314" t="s">
+      <c r="E56" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="F56" s="49" t="str">
@@ -15580,13 +15588,13 @@
       <c r="B57" s="37" t="s">
         <v>1264</v>
       </c>
-      <c r="C57" s="314" t="s">
+      <c r="C57" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>1269</v>
       </c>
-      <c r="E57" s="314" t="s">
+      <c r="E57" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="F57" s="49" t="str">
@@ -15667,7 +15675,7 @@
       <c r="B58" s="37" t="s">
         <v>1265</v>
       </c>
-      <c r="C58" s="314" t="s">
+      <c r="C58" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="D58" s="49">
@@ -15847,7 +15855,7 @@
       <c r="D60" s="49" t="s">
         <v>1269</v>
       </c>
-      <c r="E60" s="314" t="s">
+      <c r="E60" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="F60" s="49" t="str">
@@ -15928,13 +15936,13 @@
       <c r="B61" s="37" t="s">
         <v>1264</v>
       </c>
-      <c r="C61" s="314" t="s">
+      <c r="C61" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>1269</v>
       </c>
-      <c r="E61" s="314" t="s">
+      <c r="E61" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="F61" s="49" t="str">
@@ -16015,7 +16023,7 @@
       <c r="B62" s="37" t="s">
         <v>1265</v>
       </c>
-      <c r="C62" s="314" t="s">
+      <c r="C62" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="D62" s="49">
@@ -16197,7 +16205,7 @@
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E64" s="314" t="s">
+      <c r="E64" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="F64" s="49" t="str">
@@ -16278,14 +16286,14 @@
       <c r="B65" s="21" t="s">
         <v>1264</v>
       </c>
-      <c r="C65" s="314" t="s">
+      <c r="C65" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="D65" s="49" t="str">
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E65" s="314" t="s">
+      <c r="E65" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="F65" s="49" t="str">
@@ -16366,7 +16374,7 @@
       <c r="B66" s="37" t="s">
         <v>1265</v>
       </c>
-      <c r="C66" s="314" t="s">
+      <c r="C66" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="D66" s="49" t="str">
@@ -16625,10 +16633,10 @@
       <c r="B69" s="37" t="s">
         <v>1264</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="316" t="s">
         <v>1276</v>
       </c>
-      <c r="D69" s="314" t="s">
+      <c r="D69" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="E69" s="49">
@@ -16708,10 +16716,10 @@
       <c r="B70" s="37" t="s">
         <v>1265</v>
       </c>
-      <c r="C70" s="314" t="s">
+      <c r="C70" s="316" t="s">
         <v>1276</v>
       </c>
-      <c r="D70" s="314" t="s">
+      <c r="D70" s="316" t="s">
         <v>1276</v>
       </c>
       <c r="E70" s="49">
@@ -16958,10 +16966,10 @@
       <c r="B73" s="37" t="s">
         <v>1264</v>
       </c>
-      <c r="C73" s="315" t="s">
+      <c r="C73" s="317" t="s">
         <v>1276</v>
       </c>
-      <c r="D73" s="315" t="s">
+      <c r="D73" s="317" t="s">
         <v>1276</v>
       </c>
       <c r="E73" s="124">
@@ -17041,10 +17049,10 @@
       <c r="B74" s="37" t="s">
         <v>1265</v>
       </c>
-      <c r="C74" s="315" t="s">
+      <c r="C74" s="317" t="s">
         <v>1276</v>
       </c>
-      <c r="D74" s="315" t="s">
+      <c r="D74" s="317" t="s">
         <v>1276</v>
       </c>
       <c r="E74" s="124">
@@ -17171,8 +17179,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5"/>
@@ -17223,8 +17231,8 @@
       <c r="J2" s="230"/>
       <c r="K2" s="230"/>
       <c r="L2" s="230"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
     </row>
     <row r="3" s="183" customFormat="1" ht="23.1" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A3" s="231" t="s">
@@ -17331,8 +17339,8 @@
       <c r="H5" s="235">
         <v>1</v>
       </c>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
       <c r="K5" s="235">
         <f>SUM(E5:G5)</f>
         <v>2</v>
@@ -17343,7 +17351,7 @@
       <c r="M5" s="235">
         <v>3</v>
       </c>
-      <c r="N5" s="263"/>
+      <c r="N5" s="264"/>
     </row>
     <row r="6" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A6" s="240"/>
@@ -17362,8 +17370,8 @@
       <c r="H6" s="235">
         <v>0</v>
       </c>
-      <c r="I6" s="264"/>
-      <c r="J6" s="262"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="263"/>
       <c r="K6" s="235">
         <f>SUM(E6:F6)</f>
         <v>0</v>
@@ -17374,7 +17382,7 @@
       <c r="M6" s="235">
         <v>0</v>
       </c>
-      <c r="N6" s="263"/>
+      <c r="N6" s="264"/>
     </row>
     <row r="7" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A7" s="240"/>
@@ -17393,8 +17401,8 @@
       <c r="H7" s="235">
         <v>0</v>
       </c>
-      <c r="I7" s="264"/>
-      <c r="J7" s="262"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="263"/>
       <c r="K7" s="235">
         <f>SUM(E7:F7)</f>
         <v>0</v>
@@ -17405,7 +17413,7 @@
       <c r="M7" s="235">
         <v>0</v>
       </c>
-      <c r="N7" s="263"/>
+      <c r="N7" s="264"/>
     </row>
     <row r="8" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A8" s="240"/>
@@ -17424,8 +17432,8 @@
       <c r="H8" s="235">
         <v>1</v>
       </c>
-      <c r="I8" s="264"/>
-      <c r="J8" s="262"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="263"/>
       <c r="K8" s="235">
         <f>SUM(E8:F8)</f>
         <v>2</v>
@@ -17436,7 +17444,7 @@
       <c r="M8" s="235">
         <v>4</v>
       </c>
-      <c r="N8" s="263"/>
+      <c r="N8" s="264"/>
     </row>
     <row r="9" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A9" s="240"/>
@@ -17461,7 +17469,7 @@
       <c r="H9" s="246">
         <v>0.5603</v>
       </c>
-      <c r="I9" s="265"/>
+      <c r="I9" s="266"/>
       <c r="J9" s="257"/>
       <c r="K9" s="246">
         <v>0.5131</v>
@@ -17472,7 +17480,7 @@
       <c r="M9" s="246">
         <v>0.5234</v>
       </c>
-      <c r="N9" s="263"/>
+      <c r="N9" s="264"/>
     </row>
     <row r="10" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A10" s="240"/>
@@ -17491,8 +17499,8 @@
       <c r="H10" s="235">
         <v>0</v>
       </c>
-      <c r="I10" s="265"/>
-      <c r="J10" s="265"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="266"/>
       <c r="K10" s="235">
         <v>0</v>
       </c>
@@ -17502,7 +17510,7 @@
       <c r="M10" s="235">
         <v>0</v>
       </c>
-      <c r="N10" s="263"/>
+      <c r="N10" s="264"/>
     </row>
     <row r="11" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A11" s="240"/>
@@ -17521,8 +17529,8 @@
       <c r="H11" s="246">
         <v>1</v>
       </c>
-      <c r="I11" s="265"/>
-      <c r="J11" s="265"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
       <c r="K11" s="246">
         <v>0.5864</v>
       </c>
@@ -17532,7 +17540,7 @@
       <c r="M11" s="246">
         <v>0.6214</v>
       </c>
-      <c r="N11" s="263"/>
+      <c r="N11" s="264"/>
     </row>
     <row r="12" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A12" s="240"/>
@@ -17551,8 +17559,8 @@
       <c r="H12" s="246">
         <v>0.495</v>
       </c>
-      <c r="I12" s="265"/>
-      <c r="J12" s="265"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="266"/>
       <c r="K12" s="246">
         <v>0.4669</v>
       </c>
@@ -17562,7 +17570,7 @@
       <c r="M12" s="246">
         <v>0.4748</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="264"/>
     </row>
     <row r="13" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A13" s="240"/>
@@ -17585,8 +17593,8 @@
       <c r="H13" s="235">
         <v>13</v>
       </c>
-      <c r="I13" s="262"/>
-      <c r="J13" s="262"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
       <c r="K13" s="235">
         <f>SUM(E13:G13)</f>
         <v>42</v>
@@ -17597,7 +17605,7 @@
       <c r="M13" s="235">
         <v>55</v>
       </c>
-      <c r="N13" s="266"/>
+      <c r="N13" s="267"/>
     </row>
     <row r="14" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A14" s="240"/>
@@ -17616,8 +17624,8 @@
       <c r="H14" s="235">
         <v>0</v>
       </c>
-      <c r="I14" s="264"/>
-      <c r="J14" s="262"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="263"/>
       <c r="K14" s="235">
         <f>SUM(E14:F14)</f>
         <v>0</v>
@@ -17628,7 +17636,7 @@
       <c r="M14" s="235">
         <v>0</v>
       </c>
-      <c r="N14" s="263"/>
+      <c r="N14" s="264"/>
     </row>
     <row r="15" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A15" s="240"/>
@@ -17647,8 +17655,8 @@
       <c r="H15" s="235">
         <v>3</v>
       </c>
-      <c r="I15" s="264"/>
-      <c r="J15" s="262"/>
+      <c r="I15" s="265"/>
+      <c r="J15" s="263"/>
       <c r="K15" s="235">
         <f>SUM(E15:F15)</f>
         <v>5</v>
@@ -17659,7 +17667,7 @@
       <c r="M15" s="235">
         <v>19</v>
       </c>
-      <c r="N15" s="263"/>
+      <c r="N15" s="264"/>
     </row>
     <row r="16" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A16" s="240"/>
@@ -17678,8 +17686,8 @@
       <c r="H16" s="235">
         <v>10</v>
       </c>
-      <c r="I16" s="264"/>
-      <c r="J16" s="262"/>
+      <c r="I16" s="265"/>
+      <c r="J16" s="263"/>
       <c r="K16" s="235">
         <f>SUM(E16:F16)</f>
         <v>6</v>
@@ -17690,7 +17698,7 @@
       <c r="M16" s="235">
         <v>29</v>
       </c>
-      <c r="N16" s="263"/>
+      <c r="N16" s="264"/>
     </row>
     <row r="17" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A17" s="240"/>
@@ -17724,7 +17732,7 @@
       <c r="M17" s="235">
         <v>-9.37</v>
       </c>
-      <c r="N17" s="266"/>
+      <c r="N17" s="267"/>
     </row>
     <row r="18" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A18" s="240"/>
@@ -17754,7 +17762,7 @@
       <c r="M18" s="235">
         <v>0</v>
       </c>
-      <c r="N18" s="263"/>
+      <c r="N18" s="264"/>
     </row>
     <row r="19" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A19" s="240"/>
@@ -17784,7 +17792,7 @@
       <c r="M19" s="235">
         <v>-509.96</v>
       </c>
-      <c r="N19" s="263"/>
+      <c r="N19" s="264"/>
     </row>
     <row r="20" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A20" s="240"/>
@@ -17814,7 +17822,7 @@
       <c r="M20" s="235">
         <v>-445.7</v>
       </c>
-      <c r="N20" s="263"/>
+      <c r="N20" s="264"/>
     </row>
     <row r="21" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A21" s="240"/>
@@ -17837,8 +17845,8 @@
       <c r="H21" s="235">
         <v>10</v>
       </c>
-      <c r="I21" s="262"/>
-      <c r="J21" s="262"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="263"/>
       <c r="K21" s="235">
         <f>SUM(E21:G21)</f>
         <v>39</v>
@@ -17849,7 +17857,7 @@
       <c r="M21" s="235">
         <v>49</v>
       </c>
-      <c r="N21" s="263"/>
+      <c r="N21" s="264"/>
     </row>
     <row r="22" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A22" s="240"/>
@@ -17868,8 +17876,8 @@
       <c r="H22" s="235">
         <v>0</v>
       </c>
-      <c r="I22" s="264"/>
-      <c r="J22" s="262"/>
+      <c r="I22" s="265"/>
+      <c r="J22" s="263"/>
       <c r="K22" s="235">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -17880,7 +17888,7 @@
       <c r="M22" s="235">
         <v>0</v>
       </c>
-      <c r="N22" s="263"/>
+      <c r="N22" s="264"/>
     </row>
     <row r="23" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A23" s="240"/>
@@ -17899,8 +17907,8 @@
       <c r="H23" s="235">
         <v>0</v>
       </c>
-      <c r="I23" s="264"/>
-      <c r="J23" s="262"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="263"/>
       <c r="K23" s="235">
         <f>SUM(E23:F23)</f>
         <v>3</v>
@@ -17911,7 +17919,7 @@
       <c r="M23" s="235">
         <v>8</v>
       </c>
-      <c r="N23" s="263"/>
+      <c r="N23" s="264"/>
     </row>
     <row r="24" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A24" s="240"/>
@@ -17930,8 +17938,8 @@
       <c r="H24" s="235">
         <v>10</v>
       </c>
-      <c r="I24" s="264"/>
-      <c r="J24" s="262"/>
+      <c r="I24" s="265"/>
+      <c r="J24" s="263"/>
       <c r="K24" s="235">
         <f>SUM(E24:F24)</f>
         <v>7</v>
@@ -17942,7 +17950,7 @@
       <c r="M24" s="235">
         <v>31</v>
       </c>
-      <c r="N24" s="263"/>
+      <c r="N24" s="264"/>
     </row>
     <row r="25" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A25" s="240"/>
@@ -17976,7 +17984,7 @@
       <c r="M25" s="235">
         <v>2.33</v>
       </c>
-      <c r="N25" s="263"/>
+      <c r="N25" s="264"/>
     </row>
     <row r="26" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A26" s="240"/>
@@ -18006,7 +18014,7 @@
       <c r="M26" s="235">
         <v>0</v>
       </c>
-      <c r="N26" s="263"/>
+      <c r="N26" s="264"/>
     </row>
     <row r="27" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A27" s="240"/>
@@ -18036,7 +18044,7 @@
       <c r="M27" s="235">
         <v>1.81</v>
       </c>
-      <c r="N27" s="263"/>
+      <c r="N27" s="264"/>
     </row>
     <row r="28" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A28" s="240"/>
@@ -18066,7 +18074,7 @@
       <c r="M28" s="235">
         <v>2.55</v>
       </c>
-      <c r="N28" s="263"/>
+      <c r="N28" s="264"/>
     </row>
     <row r="29" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A29" s="240"/>
@@ -18095,7 +18103,7 @@
         <f t="shared" si="0"/>
         <v>0.025</v>
       </c>
-      <c r="I29" s="262"/>
+      <c r="I29" s="263"/>
       <c r="J29" s="257"/>
       <c r="K29" s="254">
         <f>K5/IF((K5+K41)=0,1,(K5+K41))</f>
@@ -18109,7 +18117,7 @@
         <f t="shared" ref="M29:M32" si="2">M5/IF((M5+M41)=0,1,(M5+M41))</f>
         <v>0.00815217391304348</v>
       </c>
-      <c r="N29" s="263"/>
+      <c r="N29" s="264"/>
     </row>
     <row r="30" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A30" s="240"/>
@@ -18134,8 +18142,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="264"/>
-      <c r="J30" s="267"/>
+      <c r="I30" s="265"/>
+      <c r="J30" s="268"/>
       <c r="K30" s="254">
         <f>K6/IF((K6+K42)=0,1,(K6+K42))</f>
         <v>0</v>
@@ -18148,7 +18156,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="263"/>
+      <c r="N30" s="264"/>
     </row>
     <row r="31" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A31" s="240"/>
@@ -18173,8 +18181,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="264"/>
-      <c r="J31" s="267"/>
+      <c r="I31" s="265"/>
+      <c r="J31" s="268"/>
       <c r="K31" s="254">
         <f>K7/IF((K7+K43)=0,1,(K7+K43))</f>
         <v>0</v>
@@ -18187,7 +18195,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="263"/>
+      <c r="N31" s="264"/>
     </row>
     <row r="32" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A32" s="240"/>
@@ -18212,8 +18220,8 @@
         <f t="shared" si="5"/>
         <v>0.0263157894736842</v>
       </c>
-      <c r="I32" s="264"/>
-      <c r="J32" s="267"/>
+      <c r="I32" s="265"/>
+      <c r="J32" s="268"/>
       <c r="K32" s="254">
         <f>K8/IF((K8+K44)=0,1,(K8+K44))</f>
         <v>0.0224719101123595</v>
@@ -18226,7 +18234,7 @@
         <f t="shared" si="2"/>
         <v>0.0173160173160173</v>
       </c>
-      <c r="N32" s="263"/>
+      <c r="N32" s="264"/>
     </row>
     <row r="33" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A33" s="240"/>
@@ -18249,8 +18257,8 @@
       <c r="H33" s="235">
         <v>1</v>
       </c>
-      <c r="I33" s="262"/>
-      <c r="J33" s="262"/>
+      <c r="I33" s="263"/>
+      <c r="J33" s="263"/>
       <c r="K33" s="235">
         <f>SUM(E33:G33)</f>
         <v>2</v>
@@ -18261,7 +18269,7 @@
       <c r="M33" s="235">
         <v>3</v>
       </c>
-      <c r="N33" s="263"/>
+      <c r="N33" s="264"/>
     </row>
     <row r="34" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A34" s="240"/>
@@ -18282,8 +18290,8 @@
       <c r="H34" s="235">
         <v>0</v>
       </c>
-      <c r="I34" s="264"/>
-      <c r="J34" s="262"/>
+      <c r="I34" s="265"/>
+      <c r="J34" s="263"/>
       <c r="K34" s="235">
         <f t="shared" ref="K34:K44" si="6">SUM(E34:F34)</f>
         <v>0</v>
@@ -18294,7 +18302,7 @@
       <c r="M34" s="235">
         <v>0</v>
       </c>
-      <c r="N34" s="263"/>
+      <c r="N34" s="264"/>
     </row>
     <row r="35" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A35" s="240"/>
@@ -18315,8 +18323,8 @@
       <c r="H35" s="235">
         <v>1</v>
       </c>
-      <c r="I35" s="264"/>
-      <c r="J35" s="262"/>
+      <c r="I35" s="265"/>
+      <c r="J35" s="263"/>
       <c r="K35" s="235">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18327,7 +18335,7 @@
       <c r="M35" s="235">
         <v>2</v>
       </c>
-      <c r="N35" s="263"/>
+      <c r="N35" s="264"/>
     </row>
     <row r="36" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A36" s="240"/>
@@ -18348,8 +18356,8 @@
       <c r="H36" s="235">
         <v>0</v>
       </c>
-      <c r="I36" s="264"/>
-      <c r="J36" s="262"/>
+      <c r="I36" s="265"/>
+      <c r="J36" s="263"/>
       <c r="K36" s="235">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -18360,7 +18368,7 @@
       <c r="M36" s="235">
         <v>1</v>
       </c>
-      <c r="N36" s="263"/>
+      <c r="N36" s="264"/>
     </row>
     <row r="37" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A37" s="240"/>
@@ -18383,8 +18391,8 @@
       <c r="H37" s="235">
         <v>0</v>
       </c>
-      <c r="I37" s="262"/>
-      <c r="J37" s="262"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
       <c r="K37" s="235">
         <f>SUM(E37:G37)</f>
         <v>0</v>
@@ -18395,7 +18403,7 @@
       <c r="M37" s="235">
         <v>0</v>
       </c>
-      <c r="N37" s="263"/>
+      <c r="N37" s="264"/>
     </row>
     <row r="38" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A38" s="240"/>
@@ -18414,8 +18422,8 @@
       <c r="H38" s="235">
         <v>0</v>
       </c>
-      <c r="I38" s="262"/>
-      <c r="J38" s="262"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="263"/>
       <c r="K38" s="235">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18426,7 +18434,7 @@
       <c r="M38" s="235">
         <v>0</v>
       </c>
-      <c r="N38" s="263"/>
+      <c r="N38" s="264"/>
     </row>
     <row r="39" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A39" s="240"/>
@@ -18445,8 +18453,8 @@
       <c r="H39" s="235">
         <v>0</v>
       </c>
-      <c r="I39" s="262"/>
-      <c r="J39" s="262"/>
+      <c r="I39" s="263"/>
+      <c r="J39" s="263"/>
       <c r="K39" s="235">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18457,7 +18465,7 @@
       <c r="M39" s="235">
         <v>0</v>
       </c>
-      <c r="N39" s="263"/>
+      <c r="N39" s="264"/>
     </row>
     <row r="40" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A40" s="240"/>
@@ -18476,8 +18484,8 @@
       <c r="H40" s="235">
         <v>0</v>
       </c>
-      <c r="I40" s="262"/>
-      <c r="J40" s="262"/>
+      <c r="I40" s="263"/>
+      <c r="J40" s="263"/>
       <c r="K40" s="235">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18488,7 +18496,7 @@
       <c r="M40" s="235">
         <v>0</v>
       </c>
-      <c r="N40" s="263"/>
+      <c r="N40" s="264"/>
     </row>
     <row r="41" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A41" s="240"/>
@@ -18511,8 +18519,8 @@
       <c r="H41" s="235">
         <v>39</v>
       </c>
-      <c r="I41" s="262"/>
-      <c r="J41" s="262"/>
+      <c r="I41" s="263"/>
+      <c r="J41" s="263"/>
       <c r="K41" s="235">
         <f>SUM(E41:G41)</f>
         <v>326</v>
@@ -18523,7 +18531,7 @@
       <c r="M41" s="235">
         <v>365</v>
       </c>
-      <c r="N41" s="263"/>
+      <c r="N41" s="264"/>
     </row>
     <row r="42" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A42" s="240"/>
@@ -18542,8 +18550,8 @@
       <c r="H42" s="235">
         <v>0</v>
       </c>
-      <c r="I42" s="264"/>
-      <c r="J42" s="262"/>
+      <c r="I42" s="265"/>
+      <c r="J42" s="263"/>
       <c r="K42" s="235">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -18554,7 +18562,7 @@
       <c r="M42" s="235">
         <v>8</v>
       </c>
-      <c r="N42" s="263"/>
+      <c r="N42" s="264"/>
     </row>
     <row r="43" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A43" s="240"/>
@@ -18573,8 +18581,8 @@
       <c r="H43" s="235">
         <v>2</v>
       </c>
-      <c r="I43" s="264"/>
-      <c r="J43" s="262"/>
+      <c r="I43" s="265"/>
+      <c r="J43" s="263"/>
       <c r="K43" s="235">
         <f t="shared" si="6"/>
         <v>39</v>
@@ -18585,7 +18593,7 @@
       <c r="M43" s="235">
         <v>53</v>
       </c>
-      <c r="N43" s="263"/>
+      <c r="N43" s="264"/>
     </row>
     <row r="44" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A44" s="240"/>
@@ -18604,8 +18612,8 @@
       <c r="H44" s="235">
         <v>37</v>
       </c>
-      <c r="I44" s="264"/>
-      <c r="J44" s="262"/>
+      <c r="I44" s="265"/>
+      <c r="J44" s="263"/>
       <c r="K44" s="235">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -18616,9 +18624,9 @@
       <c r="M44" s="235">
         <v>227</v>
       </c>
-      <c r="N44" s="263"/>
-    </row>
-    <row r="45" s="183" customFormat="1" ht="24" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
+      <c r="N44" s="264"/>
+    </row>
+    <row r="45" s="183" customFormat="1" ht="32" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A45" s="240"/>
       <c r="B45" s="252"/>
       <c r="C45" s="253" t="s">
@@ -18639,8 +18647,8 @@
       <c r="H45" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="I45" s="265"/>
-      <c r="J45" s="265"/>
+      <c r="I45" s="266"/>
+      <c r="J45" s="266"/>
       <c r="K45" s="256" t="s">
         <v>75</v>
       </c>
@@ -18650,7 +18658,7 @@
       <c r="M45" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="N45" s="266"/>
+      <c r="N45" s="267"/>
     </row>
     <row r="46" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A46" s="240"/>
@@ -18669,8 +18677,8 @@
       <c r="H46" s="235">
         <v>0</v>
       </c>
-      <c r="I46" s="264"/>
-      <c r="J46" s="262"/>
+      <c r="I46" s="265"/>
+      <c r="J46" s="263"/>
       <c r="K46" s="235">
         <v>0</v>
       </c>
@@ -18680,7 +18688,7 @@
       <c r="M46" s="235">
         <v>0</v>
       </c>
-      <c r="N46" s="268"/>
+      <c r="N46" s="269"/>
     </row>
     <row r="47" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A47" s="240"/>
@@ -18699,8 +18707,8 @@
       <c r="H47" s="235">
         <v>54</v>
       </c>
-      <c r="I47" s="264"/>
-      <c r="J47" s="262"/>
+      <c r="I47" s="265"/>
+      <c r="J47" s="263"/>
       <c r="K47" s="235">
         <v>59</v>
       </c>
@@ -18710,7 +18718,7 @@
       <c r="M47" s="235">
         <v>54</v>
       </c>
-      <c r="N47" s="268"/>
+      <c r="N47" s="269"/>
     </row>
     <row r="48" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A48" s="240"/>
@@ -18729,8 +18737,8 @@
       <c r="H48" s="235">
         <v>107</v>
       </c>
-      <c r="I48" s="264"/>
-      <c r="J48" s="262"/>
+      <c r="I48" s="265"/>
+      <c r="J48" s="263"/>
       <c r="K48" s="235">
         <v>119</v>
       </c>
@@ -18740,7 +18748,7 @@
       <c r="M48" s="235">
         <v>107</v>
       </c>
-      <c r="N48" s="268"/>
+      <c r="N48" s="269"/>
     </row>
     <row r="49" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A49" s="240"/>
@@ -18763,8 +18771,8 @@
       <c r="H49" s="235">
         <v>1</v>
       </c>
-      <c r="I49" s="262"/>
-      <c r="J49" s="269"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="270"/>
       <c r="K49" s="235">
         <f>SUM(E49:G49)</f>
         <v>9</v>
@@ -18775,7 +18783,7 @@
       <c r="M49" s="235">
         <v>10</v>
       </c>
-      <c r="N49" s="263"/>
+      <c r="N49" s="264"/>
     </row>
     <row r="50" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A50" s="240"/>
@@ -18794,8 +18802,8 @@
       <c r="H50" s="235">
         <v>0</v>
       </c>
-      <c r="I50" s="264"/>
-      <c r="J50" s="262"/>
+      <c r="I50" s="265"/>
+      <c r="J50" s="263"/>
       <c r="K50" s="235">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -18806,7 +18814,7 @@
       <c r="M50" s="235">
         <v>0</v>
       </c>
-      <c r="N50" s="263"/>
+      <c r="N50" s="264"/>
     </row>
     <row r="51" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A51" s="240"/>
@@ -18825,8 +18833,8 @@
       <c r="H51" s="235">
         <v>0</v>
       </c>
-      <c r="I51" s="264"/>
-      <c r="J51" s="262"/>
+      <c r="I51" s="265"/>
+      <c r="J51" s="263"/>
       <c r="K51" s="235">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -18837,7 +18845,7 @@
       <c r="M51" s="235">
         <v>0</v>
       </c>
-      <c r="N51" s="263"/>
+      <c r="N51" s="264"/>
     </row>
     <row r="52" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A52" s="240"/>
@@ -18856,8 +18864,8 @@
       <c r="H52" s="235">
         <v>1</v>
       </c>
-      <c r="I52" s="264"/>
-      <c r="J52" s="262"/>
+      <c r="I52" s="265"/>
+      <c r="J52" s="263"/>
       <c r="K52" s="235">
         <f>SUM(E52:F52)</f>
         <v>4</v>
@@ -18868,7 +18876,7 @@
       <c r="M52" s="235">
         <v>8</v>
       </c>
-      <c r="N52" s="263"/>
+      <c r="N52" s="264"/>
     </row>
     <row r="53" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A53" s="240"/>
@@ -18891,17 +18899,17 @@
       </c>
       <c r="G53" s="254">
         <f t="shared" ref="G53:G60" si="9">G65/(IF(G61=0,1,G61))</f>
-        <v>1</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="H53" s="257">
         <f t="shared" ref="H53:H60" si="10">H65/(IF(H61=0,1,H61))</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="I53" s="262"/>
+      <c r="I53" s="263"/>
       <c r="J53" s="257"/>
       <c r="K53" s="257">
         <f t="shared" ref="K53:K60" si="11">K65/(IF(K61=0,1,K61))</f>
-        <v>0.89041095890411</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="L53" s="257">
         <f t="shared" ref="L53:L60" si="12">L65/(IF(L61=0,1,L61))</f>
@@ -18911,7 +18919,7 @@
         <f t="shared" ref="M53:M60" si="13">M65/(IF(M61=0,1,M61))</f>
         <v>0.857142857142857</v>
       </c>
-      <c r="N53" s="266"/>
+      <c r="N53" s="267"/>
     </row>
     <row r="54" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A54" s="240"/>
@@ -18936,8 +18944,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I54" s="264"/>
-      <c r="J54" s="267"/>
+      <c r="I54" s="265"/>
+      <c r="J54" s="268"/>
       <c r="K54" s="257">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -18950,7 +18958,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N54" s="263"/>
+      <c r="N54" s="264"/>
     </row>
     <row r="55" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A55" s="240"/>
@@ -18975,8 +18983,8 @@
         <f t="shared" si="10"/>
         <v>0.909090909090909</v>
       </c>
-      <c r="I55" s="264"/>
-      <c r="J55" s="267"/>
+      <c r="I55" s="265"/>
+      <c r="J55" s="268"/>
       <c r="K55" s="254">
         <f t="shared" si="11"/>
         <v>0.909090909090909</v>
@@ -18989,7 +18997,7 @@
         <f t="shared" si="13"/>
         <v>0.948717948717949</v>
       </c>
-      <c r="N55" s="263"/>
+      <c r="N55" s="264"/>
     </row>
     <row r="56" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A56" s="240"/>
@@ -19008,14 +19016,14 @@
       </c>
       <c r="G56" s="254">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H56" s="254">
         <f t="shared" si="10"/>
         <v>0.692307692307692</v>
       </c>
-      <c r="I56" s="264"/>
-      <c r="J56" s="267"/>
+      <c r="I56" s="265"/>
+      <c r="J56" s="268"/>
       <c r="K56" s="254">
         <f t="shared" si="11"/>
         <v>0.758620689655172</v>
@@ -19028,7 +19036,7 @@
         <f t="shared" si="13"/>
         <v>0.810344827586207</v>
       </c>
-      <c r="N56" s="263"/>
+      <c r="N56" s="264"/>
     </row>
     <row r="57" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
       <c r="A57" s="240"/>
@@ -19041,25 +19049,25 @@
       </c>
       <c r="E57" s="257">
         <f t="shared" si="7"/>
-        <v>0.166666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F57" s="257">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G57" s="254">
         <f t="shared" si="9"/>
-        <v>0.818181818181818</v>
+        <v>0.838709677419355</v>
       </c>
       <c r="H57" s="254">
         <f t="shared" si="10"/>
         <v>0.947368421052632</v>
       </c>
-      <c r="I57" s="262"/>
+      <c r="I57" s="263"/>
       <c r="J57" s="257"/>
       <c r="K57" s="257">
         <f t="shared" si="11"/>
-        <v>0.476923076923077</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="L57" s="254">
         <f t="shared" si="12"/>
@@ -19069,7 +19077,7 @@
         <f t="shared" si="13"/>
         <v>0.583333333333333</v>
       </c>
-      <c r="N57" s="270"/>
+      <c r="N57" s="271"/>
     </row>
     <row r="58" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A58" s="240"/>
@@ -19094,8 +19102,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I58" s="264"/>
-      <c r="J58" s="262"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="263"/>
       <c r="K58" s="254">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -19108,7 +19116,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N58" s="270"/>
+      <c r="N58" s="271"/>
     </row>
     <row r="59" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A59" s="240"/>
@@ -19119,11 +19127,11 @@
       <c r="D59" s="234"/>
       <c r="E59" s="254">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="254">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="254">
         <f t="shared" si="9"/>
@@ -19133,11 +19141,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I59" s="264"/>
-      <c r="J59" s="262"/>
+      <c r="I59" s="265"/>
+      <c r="J59" s="263"/>
       <c r="K59" s="254">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="254">
         <f t="shared" si="12"/>
@@ -19147,7 +19155,7 @@
         <f t="shared" si="13"/>
         <v>0.648648648648649</v>
       </c>
-      <c r="N59" s="270"/>
+      <c r="N59" s="271"/>
     </row>
     <row r="60" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A60" s="240"/>
@@ -19162,21 +19170,21 @@
       </c>
       <c r="F60" s="254">
         <f t="shared" si="8"/>
-        <v>0.166666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="G60" s="254">
         <f t="shared" si="9"/>
-        <v>0.8125</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H60" s="254">
         <f t="shared" si="10"/>
         <v>0.888888888888889</v>
       </c>
-      <c r="I60" s="264"/>
-      <c r="J60" s="262"/>
+      <c r="I60" s="265"/>
+      <c r="J60" s="263"/>
       <c r="K60" s="254">
         <f t="shared" si="11"/>
-        <v>0.181818181818182</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="L60" s="254">
         <f t="shared" si="12"/>
@@ -19186,9 +19194,9 @@
         <f t="shared" si="13"/>
         <v>0.531914893617021</v>
       </c>
-      <c r="N60" s="270"/>
-    </row>
-    <row r="61" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
+      <c r="N60" s="271"/>
+    </row>
+    <row r="61" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A61" s="240"/>
       <c r="B61" s="252"/>
       <c r="C61" s="259" t="s">
@@ -19197,20 +19205,20 @@
       <c r="D61" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="235">
+      <c r="E61" s="261">
         <v>20</v>
       </c>
-      <c r="F61" s="235">
+      <c r="F61" s="261">
         <v>20</v>
       </c>
-      <c r="G61" s="235">
+      <c r="G61" s="261">
         <v>33</v>
       </c>
       <c r="H61" s="235">
         <v>24</v>
       </c>
-      <c r="I61" s="262"/>
-      <c r="J61" s="262"/>
+      <c r="I61" s="263"/>
+      <c r="J61" s="263"/>
       <c r="K61" s="235">
         <f>SUM(E61:G61)</f>
         <v>73</v>
@@ -19221,29 +19229,29 @@
       <c r="M61" s="235">
         <v>98</v>
       </c>
-      <c r="N61" s="270"/>
-    </row>
-    <row r="62" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N61" s="271"/>
+    </row>
+    <row r="62" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A62" s="240"/>
       <c r="B62" s="252"/>
       <c r="C62" s="242" t="s">
         <v>58</v>
       </c>
       <c r="D62" s="234"/>
-      <c r="E62" s="235">
-        <v>0</v>
-      </c>
-      <c r="F62" s="235">
-        <v>0</v>
-      </c>
-      <c r="G62" s="235">
+      <c r="E62" s="261">
+        <v>0</v>
+      </c>
+      <c r="F62" s="261">
+        <v>0</v>
+      </c>
+      <c r="G62" s="261">
         <v>0</v>
       </c>
       <c r="H62" s="235">
         <v>1</v>
       </c>
-      <c r="I62" s="264"/>
-      <c r="J62" s="262"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="263"/>
       <c r="K62" s="235">
         <f t="shared" ref="K62:K76" si="14">SUM(E62:F62)</f>
         <v>0</v>
@@ -19254,29 +19262,29 @@
       <c r="M62" s="235">
         <v>1</v>
       </c>
-      <c r="N62" s="270"/>
-    </row>
-    <row r="63" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N62" s="271"/>
+    </row>
+    <row r="63" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A63" s="240"/>
       <c r="B63" s="252"/>
       <c r="C63" s="242" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="234"/>
-      <c r="E63" s="235">
+      <c r="E63" s="261">
         <v>3</v>
       </c>
-      <c r="F63" s="235">
+      <c r="F63" s="261">
         <v>8</v>
       </c>
-      <c r="G63" s="235">
+      <c r="G63" s="261">
         <v>17</v>
       </c>
       <c r="H63" s="235">
         <v>11</v>
       </c>
-      <c r="I63" s="264"/>
-      <c r="J63" s="262"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="263"/>
       <c r="K63" s="235">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -19287,29 +19295,29 @@
       <c r="M63" s="235">
         <v>39</v>
       </c>
-      <c r="N63" s="270"/>
-    </row>
-    <row r="64" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N63" s="271"/>
+    </row>
+    <row r="64" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A64" s="240"/>
       <c r="B64" s="252"/>
       <c r="C64" s="242" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="234"/>
-      <c r="E64" s="235">
+      <c r="E64" s="261">
         <v>17</v>
       </c>
-      <c r="F64" s="235">
+      <c r="F64" s="261">
         <v>12</v>
       </c>
-      <c r="G64" s="235">
+      <c r="G64" s="261">
         <v>16</v>
       </c>
       <c r="H64" s="235">
         <v>13</v>
       </c>
-      <c r="I64" s="264"/>
-      <c r="J64" s="262"/>
+      <c r="I64" s="265"/>
+      <c r="J64" s="263"/>
       <c r="K64" s="235">
         <f t="shared" si="14"/>
         <v>29</v>
@@ -19320,9 +19328,9 @@
       <c r="M64" s="235">
         <v>58</v>
       </c>
-      <c r="N64" s="270"/>
-    </row>
-    <row r="65" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
+      <c r="N64" s="271"/>
+    </row>
+    <row r="65" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A65" s="240"/>
       <c r="B65" s="252"/>
       <c r="C65" s="259" t="s">
@@ -19331,23 +19339,23 @@
       <c r="D65" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="235">
+      <c r="E65" s="261">
         <v>12</v>
       </c>
-      <c r="F65" s="235">
+      <c r="F65" s="261">
         <v>20</v>
       </c>
-      <c r="G65" s="235">
-        <v>33</v>
+      <c r="G65" s="261">
+        <v>31</v>
       </c>
       <c r="H65" s="235">
         <v>19</v>
       </c>
-      <c r="I65" s="262"/>
-      <c r="J65" s="290"/>
+      <c r="I65" s="263"/>
+      <c r="J65" s="292"/>
       <c r="K65" s="235">
         <f>SUM(E65:G65)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L65" s="235">
         <v>19</v>
@@ -19355,29 +19363,29 @@
       <c r="M65" s="235">
         <v>84</v>
       </c>
-      <c r="N65" s="270"/>
-    </row>
-    <row r="66" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N65" s="271"/>
+    </row>
+    <row r="66" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A66" s="240"/>
       <c r="B66" s="252"/>
       <c r="C66" s="242" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="234"/>
-      <c r="E66" s="235">
-        <v>0</v>
-      </c>
-      <c r="F66" s="235">
-        <v>0</v>
-      </c>
-      <c r="G66" s="235">
+      <c r="E66" s="261">
+        <v>0</v>
+      </c>
+      <c r="F66" s="261">
+        <v>0</v>
+      </c>
+      <c r="G66" s="261">
         <v>0</v>
       </c>
       <c r="H66" s="235">
         <v>0</v>
       </c>
-      <c r="I66" s="264"/>
-      <c r="J66" s="262"/>
+      <c r="I66" s="265"/>
+      <c r="J66" s="263"/>
       <c r="K66" s="235">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -19388,29 +19396,29 @@
       <c r="M66" s="235">
         <v>0</v>
       </c>
-      <c r="N66" s="270"/>
-    </row>
-    <row r="67" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N66" s="271"/>
+    </row>
+    <row r="67" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A67" s="240"/>
       <c r="B67" s="252"/>
       <c r="C67" s="242" t="s">
         <v>59</v>
       </c>
       <c r="D67" s="234"/>
-      <c r="E67" s="235">
+      <c r="E67" s="261">
         <v>2</v>
       </c>
-      <c r="F67" s="235">
+      <c r="F67" s="261">
         <v>8</v>
       </c>
-      <c r="G67" s="235">
+      <c r="G67" s="261">
         <v>17</v>
       </c>
       <c r="H67" s="235">
         <v>10</v>
       </c>
-      <c r="I67" s="264"/>
-      <c r="J67" s="262"/>
+      <c r="I67" s="265"/>
+      <c r="J67" s="263"/>
       <c r="K67" s="235">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -19421,29 +19429,29 @@
       <c r="M67" s="235">
         <v>37</v>
       </c>
-      <c r="N67" s="270"/>
-    </row>
-    <row r="68" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N67" s="271"/>
+    </row>
+    <row r="68" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A68" s="240"/>
       <c r="B68" s="252"/>
       <c r="C68" s="242" t="s">
         <v>60</v>
       </c>
       <c r="D68" s="234"/>
-      <c r="E68" s="235">
+      <c r="E68" s="272">
         <v>10</v>
       </c>
-      <c r="F68" s="235">
+      <c r="F68" s="272">
         <v>12</v>
       </c>
-      <c r="G68" s="235">
-        <v>16</v>
+      <c r="G68" s="272">
+        <v>14</v>
       </c>
       <c r="H68" s="235">
         <v>9</v>
       </c>
-      <c r="I68" s="264"/>
-      <c r="J68" s="262"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="263"/>
       <c r="K68" s="235">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -19454,9 +19462,9 @@
       <c r="M68" s="235">
         <v>47</v>
       </c>
-      <c r="N68" s="270"/>
-    </row>
-    <row r="69" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
+      <c r="N68" s="271"/>
+    </row>
+    <row r="69" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A69" s="240"/>
       <c r="B69" s="252"/>
       <c r="C69" s="259" t="s">
@@ -19465,23 +19473,23 @@
       <c r="D69" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="235">
-        <v>2</v>
-      </c>
-      <c r="F69" s="235">
-        <v>2</v>
-      </c>
-      <c r="G69" s="235">
-        <v>27</v>
+      <c r="E69" s="272">
+        <v>4</v>
+      </c>
+      <c r="F69" s="272">
+        <v>19</v>
+      </c>
+      <c r="G69" s="272">
+        <v>26</v>
       </c>
       <c r="H69" s="235">
         <v>18</v>
       </c>
-      <c r="I69" s="262"/>
-      <c r="J69" s="262"/>
+      <c r="I69" s="263"/>
+      <c r="J69" s="263"/>
       <c r="K69" s="235">
         <f>SUM(E69:G69)</f>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L69" s="235">
         <v>18</v>
@@ -19489,29 +19497,29 @@
       <c r="M69" s="235">
         <v>49</v>
       </c>
-      <c r="N69" s="270"/>
-    </row>
-    <row r="70" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N69" s="271"/>
+    </row>
+    <row r="70" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A70" s="240"/>
       <c r="B70" s="252"/>
       <c r="C70" s="242" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="234"/>
-      <c r="E70" s="235">
-        <v>0</v>
-      </c>
-      <c r="F70" s="235">
-        <v>0</v>
-      </c>
-      <c r="G70" s="235">
+      <c r="E70" s="272">
+        <v>0</v>
+      </c>
+      <c r="F70" s="272">
+        <v>0</v>
+      </c>
+      <c r="G70" s="272">
         <v>0</v>
       </c>
       <c r="H70" s="235">
         <v>0</v>
       </c>
-      <c r="I70" s="264"/>
-      <c r="J70" s="262"/>
+      <c r="I70" s="265"/>
+      <c r="J70" s="263"/>
       <c r="K70" s="235">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -19522,32 +19530,32 @@
       <c r="M70" s="235">
         <v>0</v>
       </c>
-      <c r="N70" s="270"/>
-    </row>
-    <row r="71" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N70" s="271"/>
+    </row>
+    <row r="71" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A71" s="240"/>
       <c r="B71" s="252"/>
       <c r="C71" s="242" t="s">
         <v>59</v>
       </c>
       <c r="D71" s="234"/>
-      <c r="E71" s="235">
-        <v>0</v>
-      </c>
-      <c r="F71" s="235">
-        <v>0</v>
-      </c>
-      <c r="G71" s="235">
+      <c r="E71" s="272">
+        <v>2</v>
+      </c>
+      <c r="F71" s="272">
+        <v>8</v>
+      </c>
+      <c r="G71" s="272">
         <v>14</v>
       </c>
       <c r="H71" s="235">
         <v>10</v>
       </c>
-      <c r="I71" s="264"/>
-      <c r="J71" s="262"/>
+      <c r="I71" s="265"/>
+      <c r="J71" s="263"/>
       <c r="K71" s="235">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L71" s="235">
         <v>10</v>
@@ -19555,32 +19563,32 @@
       <c r="M71" s="235">
         <v>24</v>
       </c>
-      <c r="N71" s="270"/>
-    </row>
-    <row r="72" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N71" s="271"/>
+    </row>
+    <row r="72" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A72" s="240"/>
       <c r="B72" s="252"/>
       <c r="C72" s="242" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="234"/>
-      <c r="E72" s="235">
+      <c r="E72" s="272">
         <v>2</v>
       </c>
-      <c r="F72" s="235">
-        <v>2</v>
-      </c>
-      <c r="G72" s="235">
-        <v>13</v>
+      <c r="F72" s="272">
+        <v>11</v>
+      </c>
+      <c r="G72" s="272">
+        <v>12</v>
       </c>
       <c r="H72" s="235">
         <v>8</v>
       </c>
-      <c r="I72" s="264"/>
-      <c r="J72" s="262"/>
+      <c r="I72" s="265"/>
+      <c r="J72" s="263"/>
       <c r="K72" s="235">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L72" s="235">
         <v>8</v>
@@ -19588,9 +19596,9 @@
       <c r="M72" s="235">
         <v>25</v>
       </c>
-      <c r="N72" s="270"/>
-    </row>
-    <row r="73" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
+      <c r="N72" s="271"/>
+    </row>
+    <row r="73" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A73" s="240"/>
       <c r="B73" s="252"/>
       <c r="C73" s="259" t="s">
@@ -19609,17 +19617,17 @@
       </c>
       <c r="G73" s="235">
         <f t="shared" ref="G73:G76" si="17">G61-G65</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" s="235">
         <f t="shared" ref="H73:H76" si="18">H61-H65</f>
         <v>5</v>
       </c>
-      <c r="I73" s="262"/>
-      <c r="J73" s="269"/>
+      <c r="I73" s="263"/>
+      <c r="J73" s="270"/>
       <c r="K73" s="235">
         <f>SUM(E73:G73)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L73" s="235">
         <f t="shared" ref="L73:L76" si="19">L61-L65</f>
@@ -19629,9 +19637,9 @@
         <f t="shared" ref="M73:M76" si="20">M61-M65</f>
         <v>14</v>
       </c>
-      <c r="N73" s="270"/>
-    </row>
-    <row r="74" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N73" s="271"/>
+    </row>
+    <row r="74" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A74" s="240"/>
       <c r="B74" s="252"/>
       <c r="C74" s="242" t="s">
@@ -19654,8 +19662,8 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="I74" s="264"/>
-      <c r="J74" s="262"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="263"/>
       <c r="K74" s="235">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -19668,9 +19676,9 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="N74" s="270"/>
-    </row>
-    <row r="75" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N74" s="271"/>
+    </row>
+    <row r="75" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A75" s="240"/>
       <c r="B75" s="252"/>
       <c r="C75" s="242" t="s">
@@ -19693,8 +19701,8 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="I75" s="264"/>
-      <c r="J75" s="262"/>
+      <c r="I75" s="265"/>
+      <c r="J75" s="263"/>
       <c r="K75" s="235">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -19707,9 +19715,9 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="N75" s="270"/>
-    </row>
-    <row r="76" s="183" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N75" s="271"/>
+    </row>
+    <row r="76" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A76" s="240"/>
       <c r="B76" s="252"/>
       <c r="C76" s="242" t="s">
@@ -19726,14 +19734,14 @@
       </c>
       <c r="G76" s="235">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" s="235">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="I76" s="264"/>
-      <c r="J76" s="262"/>
+      <c r="I76" s="265"/>
+      <c r="J76" s="263"/>
       <c r="K76" s="235">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -19746,9 +19754,9 @@
         <f t="shared" si="20"/>
         <v>11</v>
       </c>
-      <c r="N76" s="270"/>
-    </row>
-    <row r="77" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:14">
+      <c r="N76" s="271"/>
+    </row>
+    <row r="77" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A77" s="240"/>
       <c r="B77" s="252"/>
       <c r="C77" s="259" t="s">
@@ -19769,8 +19777,8 @@
       <c r="H77" s="235">
         <v>28</v>
       </c>
-      <c r="I77" s="262"/>
-      <c r="J77" s="269"/>
+      <c r="I77" s="263"/>
+      <c r="J77" s="270"/>
       <c r="K77" s="235">
         <v>29</v>
       </c>
@@ -19780,9 +19788,9 @@
       <c r="M77" s="235">
         <v>28</v>
       </c>
-      <c r="N77" s="270"/>
-    </row>
-    <row r="78" s="183" customFormat="1" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N77" s="271"/>
+    </row>
+    <row r="78" s="183" customFormat="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A78" s="240"/>
       <c r="B78" s="252"/>
       <c r="C78" s="242" t="s">
@@ -19799,8 +19807,8 @@
       <c r="H78" s="235">
         <v>0</v>
       </c>
-      <c r="I78" s="264"/>
-      <c r="J78" s="291"/>
+      <c r="I78" s="265"/>
+      <c r="J78" s="293"/>
       <c r="K78" s="235">
         <v>0</v>
       </c>
@@ -19810,9 +19818,9 @@
       <c r="M78" s="235">
         <v>0</v>
       </c>
-      <c r="N78" s="292"/>
-    </row>
-    <row r="79" s="183" customFormat="1" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N78" s="294"/>
+    </row>
+    <row r="79" s="183" customFormat="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A79" s="240"/>
       <c r="B79" s="252"/>
       <c r="C79" s="242" t="s">
@@ -19829,8 +19837,8 @@
       <c r="H79" s="235">
         <v>6</v>
       </c>
-      <c r="I79" s="264"/>
-      <c r="J79" s="291"/>
+      <c r="I79" s="265"/>
+      <c r="J79" s="293"/>
       <c r="K79" s="235">
         <v>5</v>
       </c>
@@ -19840,9 +19848,9 @@
       <c r="M79" s="235">
         <v>6</v>
       </c>
-      <c r="N79" s="292"/>
-    </row>
-    <row r="80" s="183" customFormat="1" hidden="1" customHeight="1" outlineLevel="2" spans="1:14">
+      <c r="N79" s="294"/>
+    </row>
+    <row r="80" s="183" customFormat="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A80" s="240"/>
       <c r="B80" s="252"/>
       <c r="C80" s="242" t="s">
@@ -19859,8 +19867,8 @@
       <c r="H80" s="235">
         <v>22</v>
       </c>
-      <c r="I80" s="264"/>
-      <c r="J80" s="291"/>
+      <c r="I80" s="265"/>
+      <c r="J80" s="293"/>
       <c r="K80" s="235">
         <v>24</v>
       </c>
@@ -19870,7 +19878,7 @@
       <c r="M80" s="235">
         <v>22</v>
       </c>
-      <c r="N80" s="292"/>
+      <c r="N80" s="294"/>
     </row>
     <row r="81" s="222" customFormat="1" ht="27.95" customHeight="1" collapsed="1" spans="1:15">
       <c r="A81" s="230" t="s">
@@ -19887,253 +19895,253 @@
       <c r="J81" s="230"/>
       <c r="K81" s="230"/>
       <c r="L81" s="230"/>
-      <c r="M81" s="261"/>
-      <c r="N81" s="261"/>
-      <c r="O81" s="293"/>
+      <c r="M81" s="262"/>
+      <c r="N81" s="262"/>
+      <c r="O81" s="295"/>
     </row>
     <row r="82" s="223" customFormat="1" ht="18" hidden="1" outlineLevel="2" spans="1:15">
-      <c r="A82" s="271" t="s">
+      <c r="A82" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="272"/>
-      <c r="C82" s="273" t="s">
+      <c r="B82" s="274"/>
+      <c r="C82" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="273"/>
-      <c r="E82" s="273"/>
-      <c r="F82" s="273"/>
-      <c r="G82" s="273"/>
-      <c r="H82" s="273"/>
-      <c r="I82" s="273"/>
-      <c r="J82" s="273"/>
-      <c r="K82" s="273"/>
-      <c r="L82" s="273"/>
-      <c r="M82" s="273"/>
-      <c r="N82" s="294"/>
-      <c r="O82" s="295"/>
+      <c r="D82" s="275"/>
+      <c r="E82" s="275"/>
+      <c r="F82" s="275"/>
+      <c r="G82" s="275"/>
+      <c r="H82" s="275"/>
+      <c r="I82" s="275"/>
+      <c r="J82" s="275"/>
+      <c r="K82" s="275"/>
+      <c r="L82" s="275"/>
+      <c r="M82" s="275"/>
+      <c r="N82" s="296"/>
+      <c r="O82" s="297"/>
     </row>
     <row r="83" s="223" customFormat="1" ht="22.5" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A83" s="271" t="s">
+      <c r="A83" s="273" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="272"/>
-      <c r="C83" s="274" t="s">
+      <c r="B83" s="274"/>
+      <c r="C83" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="274"/>
-      <c r="E83" s="274"/>
-      <c r="F83" s="274"/>
-      <c r="G83" s="274"/>
-      <c r="H83" s="274"/>
-      <c r="I83" s="274"/>
-      <c r="J83" s="274"/>
-      <c r="K83" s="274"/>
-      <c r="L83" s="274"/>
-      <c r="M83" s="274"/>
-      <c r="N83" s="296"/>
-      <c r="O83" s="295"/>
+      <c r="D83" s="276"/>
+      <c r="E83" s="276"/>
+      <c r="F83" s="276"/>
+      <c r="G83" s="276"/>
+      <c r="H83" s="276"/>
+      <c r="I83" s="276"/>
+      <c r="J83" s="276"/>
+      <c r="K83" s="276"/>
+      <c r="L83" s="276"/>
+      <c r="M83" s="276"/>
+      <c r="N83" s="298"/>
+      <c r="O83" s="297"/>
     </row>
     <row r="84" s="223" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A84" s="275" t="s">
+      <c r="A84" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="276"/>
-      <c r="C84" s="277" t="s">
+      <c r="B84" s="278"/>
+      <c r="C84" s="279" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="277"/>
-      <c r="E84" s="277"/>
-      <c r="F84" s="277"/>
-      <c r="G84" s="277"/>
-      <c r="H84" s="277"/>
-      <c r="I84" s="277"/>
-      <c r="J84" s="277"/>
-      <c r="K84" s="277"/>
-      <c r="L84" s="277"/>
-      <c r="M84" s="277"/>
-      <c r="N84" s="297"/>
-      <c r="O84" s="295"/>
+      <c r="D84" s="279"/>
+      <c r="E84" s="279"/>
+      <c r="F84" s="279"/>
+      <c r="G84" s="279"/>
+      <c r="H84" s="279"/>
+      <c r="I84" s="279"/>
+      <c r="J84" s="279"/>
+      <c r="K84" s="279"/>
+      <c r="L84" s="279"/>
+      <c r="M84" s="279"/>
+      <c r="N84" s="299"/>
+      <c r="O84" s="297"/>
     </row>
     <row r="85" s="223" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A85" s="275" t="s">
+      <c r="A85" s="277" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="276"/>
-      <c r="C85" s="277" t="s">
+      <c r="B85" s="278"/>
+      <c r="C85" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="277"/>
-      <c r="E85" s="277"/>
-      <c r="F85" s="277"/>
-      <c r="G85" s="277"/>
-      <c r="H85" s="277"/>
-      <c r="I85" s="277"/>
-      <c r="J85" s="277"/>
-      <c r="K85" s="277"/>
-      <c r="L85" s="277"/>
-      <c r="M85" s="277"/>
-      <c r="N85" s="297"/>
-      <c r="O85" s="295"/>
+      <c r="D85" s="279"/>
+      <c r="E85" s="279"/>
+      <c r="F85" s="279"/>
+      <c r="G85" s="279"/>
+      <c r="H85" s="279"/>
+      <c r="I85" s="279"/>
+      <c r="J85" s="279"/>
+      <c r="K85" s="279"/>
+      <c r="L85" s="279"/>
+      <c r="M85" s="279"/>
+      <c r="N85" s="299"/>
+      <c r="O85" s="297"/>
     </row>
     <row r="86" s="223" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
-      <c r="A86" s="275" t="s">
+      <c r="A86" s="277" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="276"/>
-      <c r="C86" s="278" t="s">
+      <c r="B86" s="278"/>
+      <c r="C86" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="278"/>
-      <c r="E86" s="278"/>
-      <c r="F86" s="278"/>
-      <c r="G86" s="278"/>
-      <c r="H86" s="278"/>
-      <c r="I86" s="278"/>
-      <c r="J86" s="278"/>
-      <c r="K86" s="278"/>
-      <c r="L86" s="278"/>
-      <c r="M86" s="278"/>
-      <c r="N86" s="298"/>
-      <c r="O86" s="295"/>
+      <c r="D86" s="280"/>
+      <c r="E86" s="280"/>
+      <c r="F86" s="280"/>
+      <c r="G86" s="280"/>
+      <c r="H86" s="280"/>
+      <c r="I86" s="280"/>
+      <c r="J86" s="280"/>
+      <c r="K86" s="280"/>
+      <c r="L86" s="280"/>
+      <c r="M86" s="280"/>
+      <c r="N86" s="300"/>
+      <c r="O86" s="297"/>
     </row>
     <row r="87" s="223" customFormat="1" ht="45.6" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A87" s="275" t="s">
+      <c r="A87" s="277" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="276"/>
-      <c r="C87" s="279" t="s">
+      <c r="B87" s="278"/>
+      <c r="C87" s="281" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="279"/>
-      <c r="E87" s="279"/>
-      <c r="F87" s="279"/>
-      <c r="G87" s="279"/>
-      <c r="H87" s="279"/>
-      <c r="I87" s="279"/>
-      <c r="J87" s="279"/>
-      <c r="K87" s="279"/>
-      <c r="L87" s="279"/>
-      <c r="M87" s="279"/>
-      <c r="N87" s="299"/>
-      <c r="O87" s="295"/>
+      <c r="D87" s="281"/>
+      <c r="E87" s="281"/>
+      <c r="F87" s="281"/>
+      <c r="G87" s="281"/>
+      <c r="H87" s="281"/>
+      <c r="I87" s="281"/>
+      <c r="J87" s="281"/>
+      <c r="K87" s="281"/>
+      <c r="L87" s="281"/>
+      <c r="M87" s="281"/>
+      <c r="N87" s="301"/>
+      <c r="O87" s="297"/>
     </row>
     <row r="88" s="222" customFormat="1" ht="23.25" customHeight="1" spans="1:14">
-      <c r="A88" s="280" t="s">
+      <c r="A88" s="282" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="280"/>
-      <c r="C88" s="281" t="s">
+      <c r="B88" s="282"/>
+      <c r="C88" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="282"/>
-      <c r="E88" s="282"/>
-      <c r="F88" s="282"/>
-      <c r="G88" s="282"/>
-      <c r="H88" s="282"/>
-      <c r="I88" s="282"/>
-      <c r="J88" s="282"/>
-      <c r="K88" s="282"/>
-      <c r="L88" s="282"/>
-      <c r="M88" s="282"/>
-      <c r="N88" s="282"/>
+      <c r="D88" s="284"/>
+      <c r="E88" s="284"/>
+      <c r="F88" s="284"/>
+      <c r="G88" s="284"/>
+      <c r="H88" s="284"/>
+      <c r="I88" s="284"/>
+      <c r="J88" s="284"/>
+      <c r="K88" s="284"/>
+      <c r="L88" s="284"/>
+      <c r="M88" s="284"/>
+      <c r="N88" s="284"/>
     </row>
     <row r="89" s="222" customFormat="1" ht="23.25" customHeight="1" spans="1:14">
-      <c r="A89" s="283" t="s">
+      <c r="A89" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="284"/>
-      <c r="C89" s="284"/>
-      <c r="D89" s="284"/>
-      <c r="E89" s="284"/>
-      <c r="F89" s="284"/>
-      <c r="G89" s="284"/>
-      <c r="H89" s="284"/>
-      <c r="I89" s="284"/>
-      <c r="J89" s="284"/>
-      <c r="K89" s="284"/>
-      <c r="L89" s="284"/>
-      <c r="M89" s="284"/>
-      <c r="N89" s="300"/>
+      <c r="B89" s="286"/>
+      <c r="C89" s="286"/>
+      <c r="D89" s="286"/>
+      <c r="E89" s="286"/>
+      <c r="F89" s="286"/>
+      <c r="G89" s="286"/>
+      <c r="H89" s="286"/>
+      <c r="I89" s="286"/>
+      <c r="J89" s="286"/>
+      <c r="K89" s="286"/>
+      <c r="L89" s="286"/>
+      <c r="M89" s="286"/>
+      <c r="N89" s="302"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="285" t="s">
+      <c r="A90" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="286"/>
-      <c r="C90" s="287" t="s">
+      <c r="B90" s="288"/>
+      <c r="C90" s="289" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="287"/>
-      <c r="E90" s="288"/>
-      <c r="F90" s="288"/>
-      <c r="G90" s="288"/>
-      <c r="H90" s="288"/>
-      <c r="I90" s="288"/>
-      <c r="J90" s="288"/>
-      <c r="K90" s="288"/>
-      <c r="L90" s="288"/>
-      <c r="M90" s="288"/>
-      <c r="N90" s="288"/>
+      <c r="D90" s="289"/>
+      <c r="E90" s="290"/>
+      <c r="F90" s="290"/>
+      <c r="G90" s="290"/>
+      <c r="H90" s="290"/>
+      <c r="I90" s="290"/>
+      <c r="J90" s="290"/>
+      <c r="K90" s="290"/>
+      <c r="L90" s="290"/>
+      <c r="M90" s="290"/>
+      <c r="N90" s="290"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="285" t="s">
+      <c r="A91" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="286"/>
-      <c r="C91" s="287" t="s">
+      <c r="B91" s="288"/>
+      <c r="C91" s="289" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="287"/>
-      <c r="E91" s="288"/>
-      <c r="F91" s="288"/>
-      <c r="G91" s="288"/>
-      <c r="H91" s="288"/>
-      <c r="I91" s="288"/>
-      <c r="J91" s="288"/>
-      <c r="K91" s="288"/>
-      <c r="L91" s="288"/>
-      <c r="M91" s="288"/>
-      <c r="N91" s="288"/>
+      <c r="D91" s="289"/>
+      <c r="E91" s="290"/>
+      <c r="F91" s="290"/>
+      <c r="G91" s="290"/>
+      <c r="H91" s="290"/>
+      <c r="I91" s="290"/>
+      <c r="J91" s="290"/>
+      <c r="K91" s="290"/>
+      <c r="L91" s="290"/>
+      <c r="M91" s="290"/>
+      <c r="N91" s="290"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="285" t="s">
+      <c r="A92" s="287" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="286"/>
-      <c r="C92" s="287" t="s">
+      <c r="B92" s="288"/>
+      <c r="C92" s="289" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="287"/>
-      <c r="E92" s="288"/>
-      <c r="F92" s="288"/>
-      <c r="G92" s="288"/>
-      <c r="H92" s="288"/>
-      <c r="I92" s="288"/>
-      <c r="J92" s="288"/>
-      <c r="K92" s="288"/>
-      <c r="L92" s="288"/>
-      <c r="M92" s="288"/>
-      <c r="N92" s="288"/>
+      <c r="D92" s="289"/>
+      <c r="E92" s="290"/>
+      <c r="F92" s="290"/>
+      <c r="G92" s="290"/>
+      <c r="H92" s="290"/>
+      <c r="I92" s="290"/>
+      <c r="J92" s="290"/>
+      <c r="K92" s="290"/>
+      <c r="L92" s="290"/>
+      <c r="M92" s="290"/>
+      <c r="N92" s="290"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:14">
-      <c r="A93" s="285" t="s">
+      <c r="A93" s="287" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="286"/>
-      <c r="C93" s="281" t="s">
+      <c r="B93" s="288"/>
+      <c r="C93" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="D93" s="289"/>
-      <c r="E93" s="282"/>
-      <c r="F93" s="282"/>
-      <c r="G93" s="282"/>
-      <c r="H93" s="282"/>
-      <c r="I93" s="282"/>
-      <c r="J93" s="282"/>
-      <c r="K93" s="282"/>
-      <c r="L93" s="282"/>
-      <c r="M93" s="282"/>
-      <c r="N93" s="282"/>
+      <c r="D93" s="291"/>
+      <c r="E93" s="284"/>
+      <c r="F93" s="284"/>
+      <c r="G93" s="284"/>
+      <c r="H93" s="284"/>
+      <c r="I93" s="284"/>
+      <c r="J93" s="284"/>
+      <c r="K93" s="284"/>
+      <c r="L93" s="284"/>
+      <c r="M93" s="284"/>
+      <c r="N93" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="33">
